--- a/data/trans_orig/P16A08-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A08-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26129C29-56F0-403F-850F-6C1FDE2967F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC2E3791-1F43-43AC-89BC-687ED792233E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8F3385E4-3F2D-4E56-A477-1BCB42DB6946}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{665984A9-7F43-479A-B33C-6D900BDC6A2B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="549">
   <si>
     <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,1579 +77,1615 @@
     <t>2,31%</t>
   </si>
   <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
     <t>0,96%</t>
   </si>
   <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
   </si>
   <si>
     <t>3,58%</t>
   </si>
   <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
   </si>
   <si>
     <t>3,71%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
   </si>
   <si>
     <t>96,29%</t>
   </si>
   <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
   </si>
   <si>
     <t>4,1%</t>
   </si>
   <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
   </si>
   <si>
     <t>95,9%</t>
   </si>
   <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
+    <t>93,48%</t>
   </si>
   <si>
     <t>94,98%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
   </si>
 </sst>
 </file>
@@ -2061,7 +2097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30CB7425-A092-429A-B236-72196E596F8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74ACD9C0-6A56-4433-B33A-D63290A3518A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3136,7 +3172,7 @@
         <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>27</v>
@@ -3145,13 +3181,13 @@
         <v>27855</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,13 +3202,13 @@
         <v>605574</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>603</v>
@@ -3181,13 +3217,13 @@
         <v>619817</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>1192</v>
@@ -3196,13 +3232,13 @@
         <v>1225391</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3258,7 +3294,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3270,13 +3306,13 @@
         <v>28287</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>53</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H25" s="7">
         <v>29</v>
@@ -3285,13 +3321,13 @@
         <v>29157</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>70</v>
+        <v>146</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M25" s="7">
         <v>57</v>
@@ -3300,13 +3336,13 @@
         <v>57444</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3321,13 +3357,13 @@
         <v>714490</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>152</v>
+        <v>61</v>
       </c>
       <c r="H26" s="7">
         <v>716</v>
@@ -3336,13 +3372,13 @@
         <v>754354</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M26" s="7">
         <v>1423</v>
@@ -3443,10 +3479,10 @@
         <v>161</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M28" s="7">
         <v>202</v>
@@ -3455,13 +3491,13 @@
         <v>210489</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>16</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3473,16 +3509,16 @@
         <v>3139</v>
       </c>
       <c r="D29" s="7">
-        <v>3197312</v>
+        <v>3197313</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H29" s="7">
         <v>3169</v>
@@ -3491,28 +3527,28 @@
         <v>3246921</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>98</v>
+        <v>172</v>
       </c>
       <c r="M29" s="7">
         <v>6308</v>
       </c>
       <c r="N29" s="7">
-        <v>6444233</v>
+        <v>6444234</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>25</v>
+        <v>174</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3524,7 +3560,7 @@
         <v>3213</v>
       </c>
       <c r="D30" s="7">
-        <v>3275525</v>
+        <v>3275526</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3554,7 +3590,7 @@
         <v>6510</v>
       </c>
       <c r="N30" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3568,7 +3604,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3592,7 +3628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8567DB0D-DFD1-4D3E-B8A1-218371629DE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15ABC0ED-78C7-4DDE-B5AF-3CBF906FF6C8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3609,7 +3645,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3714,39 +3750,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3759,39 +3795,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3804,39 +3840,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,13 +3889,13 @@
         <v>32351</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>34</v>
+        <v>180</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="H7" s="7">
         <v>34</v>
@@ -3868,13 +3904,13 @@
         <v>37869</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>60</v>
@@ -3883,13 +3919,13 @@
         <v>70220</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,13 +3940,13 @@
         <v>473176</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>445</v>
@@ -3919,13 +3955,13 @@
         <v>484862</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="M8" s="7">
         <v>891</v>
@@ -3934,13 +3970,13 @@
         <v>958038</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,13 +4044,13 @@
         <v>6822</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -4023,13 +4059,13 @@
         <v>24363</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -4038,13 +4074,13 @@
         <v>31184</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>180</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4059,13 +4095,13 @@
         <v>316294</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="H11" s="7">
         <v>294</v>
@@ -4074,13 +4110,13 @@
         <v>316657</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>605</v>
@@ -4089,13 +4125,13 @@
         <v>632952</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>188</v>
+        <v>120</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,13 +4199,13 @@
         <v>18384</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>208</v>
+        <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -4178,13 +4214,13 @@
         <v>35204</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M13" s="7">
         <v>51</v>
@@ -4193,13 +4229,13 @@
         <v>53588</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,13 +4250,13 @@
         <v>645802</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>218</v>
+        <v>24</v>
       </c>
       <c r="H14" s="7">
         <v>586</v>
@@ -4229,13 +4265,13 @@
         <v>633113</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M14" s="7">
         <v>1191</v>
@@ -4244,13 +4280,13 @@
         <v>1278915</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,13 +4354,13 @@
         <v>8981</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>226</v>
+        <v>17</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -4333,13 +4369,13 @@
         <v>21086</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>228</v>
+        <v>179</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M16" s="7">
         <v>30</v>
@@ -4348,13 +4384,13 @@
         <v>30067</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4369,13 +4405,13 @@
         <v>203637</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>234</v>
+        <v>27</v>
       </c>
       <c r="H17" s="7">
         <v>191</v>
@@ -4384,13 +4420,13 @@
         <v>198505</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>237</v>
+        <v>188</v>
       </c>
       <c r="M17" s="7">
         <v>378</v>
@@ -4476,10 +4512,10 @@
         <v>241</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>159</v>
+        <v>242</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -4488,13 +4524,13 @@
         <v>14225</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>72</v>
+        <v>244</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -4503,10 +4539,10 @@
         <v>24356</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>247</v>
@@ -4530,7 +4566,7 @@
         <v>249</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>167</v>
+        <v>250</v>
       </c>
       <c r="H20" s="7">
         <v>254</v>
@@ -4539,13 +4575,13 @@
         <v>263828</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>80</v>
+        <v>251</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M20" s="7">
         <v>506</v>
@@ -4554,13 +4590,13 @@
         <v>527678</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>252</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4634,7 +4670,7 @@
         <v>256</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>148</v>
+        <v>257</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -4643,13 +4679,13 @@
         <v>28292</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>259</v>
+        <v>95</v>
       </c>
       <c r="M22" s="7">
         <v>35</v>
@@ -4682,10 +4718,10 @@
         <v>263</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>157</v>
+        <v>264</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H23" s="7">
         <v>611</v>
@@ -4694,10 +4730,10 @@
         <v>665561</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>266</v>
+        <v>104</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>267</v>
@@ -4771,7 +4807,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4786,10 +4822,10 @@
         <v>271</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H25" s="7">
         <v>33</v>
@@ -4798,13 +4834,13 @@
         <v>34167</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M25" s="7">
         <v>60</v>
@@ -4840,7 +4876,7 @@
         <v>279</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>280</v>
+        <v>63</v>
       </c>
       <c r="H26" s="7">
         <v>722</v>
@@ -4849,13 +4885,13 @@
         <v>787353</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>104</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>251</v>
+        <v>157</v>
       </c>
       <c r="M26" s="7">
         <v>1410</v>
@@ -4941,10 +4977,10 @@
         <v>285</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="H28" s="7">
         <v>183</v>
@@ -4953,7 +4989,7 @@
         <v>195206</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>144</v>
+        <v>287</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>288</v>
@@ -4971,10 +5007,10 @@
         <v>290</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>291</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4995,7 +5031,7 @@
         <v>293</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>294</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>3103</v>
@@ -5004,7 +5040,7 @@
         <v>3349880</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>151</v>
+        <v>294</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>295</v>
@@ -5022,10 +5058,10 @@
         <v>297</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5081,7 +5117,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5105,7 +5141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A995D137-067C-4273-A353-3714B519308D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B12B0A3-3211-48C2-87B6-0542B12DD14E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5235,7 +5271,7 @@
         <v>301</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>91</v>
+        <v>302</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -5244,13 +5280,13 @@
         <v>13016</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>304</v>
+        <v>243</v>
       </c>
       <c r="M4" s="7">
         <v>23</v>
@@ -5262,10 +5298,10 @@
         <v>305</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5280,10 +5316,10 @@
         <v>282469</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>309</v>
@@ -5298,10 +5334,10 @@
         <v>310</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="M5" s="7">
         <v>520</v>
@@ -5310,13 +5346,13 @@
         <v>558155</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>314</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>315</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5387,10 +5423,10 @@
         <v>260</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>290</v>
+        <v>163</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -5399,13 +5435,13 @@
         <v>36267</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
@@ -5414,13 +5450,13 @@
         <v>50532</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5438,10 +5474,10 @@
         <v>268</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>297</v>
+        <v>171</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H8" s="7">
         <v>449</v>
@@ -5450,13 +5486,13 @@
         <v>486817</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="M8" s="7">
         <v>910</v>
@@ -5465,13 +5501,13 @@
         <v>975127</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5542,10 +5578,10 @@
         <v>260</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>273</v>
+        <v>329</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -5554,13 +5590,13 @@
         <v>10246</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -5569,13 +5605,13 @@
         <v>19283</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>336</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5593,10 +5629,10 @@
         <v>268</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>279</v>
+        <v>334</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H11" s="7">
         <v>321</v>
@@ -5605,13 +5641,13 @@
         <v>326063</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>338</v>
+        <v>67</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M11" s="7">
         <v>647</v>
@@ -5620,13 +5656,13 @@
         <v>635591</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>342</v>
+        <v>297</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5694,13 +5730,13 @@
         <v>15657</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -5709,13 +5745,13 @@
         <v>25386</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -5724,13 +5760,13 @@
         <v>41044</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5745,13 +5781,13 @@
         <v>354307</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H14" s="7">
         <v>336</v>
@@ -5760,13 +5796,13 @@
         <v>361897</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="M14" s="7">
         <v>676</v>
@@ -5775,13 +5811,13 @@
         <v>716203</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5849,13 +5885,13 @@
         <v>4457</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>288</v>
+        <v>355</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -5864,13 +5900,13 @@
         <v>10139</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>162</v>
+        <v>356</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -5879,13 +5915,13 @@
         <v>14596</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>40</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5900,13 +5936,13 @@
         <v>206764</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>296</v>
+        <v>362</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H17" s="7">
         <v>212</v>
@@ -5915,13 +5951,13 @@
         <v>208448</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>169</v>
+        <v>364</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="M17" s="7">
         <v>419</v>
@@ -5930,10 +5966,10 @@
         <v>415212</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>369</v>
@@ -6019,13 +6055,13 @@
         <v>13669</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>291</v>
+        <v>373</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>70</v>
+        <v>374</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>244</v>
+        <v>375</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -6034,13 +6070,13 @@
         <v>23369</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>374</v>
+        <v>260</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6055,13 +6091,13 @@
         <v>253423</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H20" s="7">
         <v>251</v>
@@ -6070,13 +6106,13 @@
         <v>259446</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>298</v>
+        <v>381</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>250</v>
+        <v>382</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>79</v>
+        <v>383</v>
       </c>
       <c r="M20" s="7">
         <v>500</v>
@@ -6085,13 +6121,13 @@
         <v>512869</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>381</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6159,10 +6195,10 @@
         <v>14761</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>71</v>
+        <v>387</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>161</v>
@@ -6174,13 +6210,13 @@
         <v>39699</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>287</v>
+        <v>389</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="M22" s="7">
         <v>47</v>
@@ -6189,13 +6225,13 @@
         <v>54460</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6210,13 +6246,13 @@
         <v>641797</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>81</v>
+        <v>395</v>
       </c>
       <c r="H23" s="7">
         <v>611</v>
@@ -6225,13 +6261,13 @@
         <v>651595</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>293</v>
+        <v>398</v>
       </c>
       <c r="M23" s="7">
         <v>1179</v>
@@ -6240,13 +6276,13 @@
         <v>1293392</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6302,7 +6338,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6314,13 +6350,13 @@
         <v>25065</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>394</v>
+        <v>204</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>115</v>
+        <v>163</v>
       </c>
       <c r="H25" s="7">
         <v>39</v>
@@ -6329,13 +6365,13 @@
         <v>42041</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>398</v>
+        <v>302</v>
       </c>
       <c r="M25" s="7">
         <v>64</v>
@@ -6344,13 +6380,13 @@
         <v>67106</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>399</v>
+        <v>36</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>146</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6365,13 +6401,13 @@
         <v>753518</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>400</v>
+        <v>212</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>122</v>
+        <v>171</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="H26" s="7">
         <v>716</v>
@@ -6380,13 +6416,13 @@
         <v>784126</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>403</v>
+        <v>308</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="M26" s="7">
         <v>1441</v>
@@ -6395,13 +6431,13 @@
         <v>1537644</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>405</v>
+        <v>46</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>154</v>
+        <v>283</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6472,10 +6508,10 @@
         <v>76</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>361</v>
+        <v>410</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>406</v>
+        <v>144</v>
       </c>
       <c r="H28" s="7">
         <v>177</v>
@@ -6484,13 +6520,13 @@
         <v>190462</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="M28" s="7">
         <v>277</v>
@@ -6499,13 +6535,13 @@
         <v>294698</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>211</v>
+        <v>415</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>288</v>
+        <v>416</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6523,10 +6559,10 @@
         <v>85</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>411</v>
+        <v>151</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>367</v>
+        <v>417</v>
       </c>
       <c r="H29" s="7">
         <v>3161</v>
@@ -6535,13 +6571,13 @@
         <v>3354080</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="M29" s="7">
         <v>6292</v>
@@ -6550,13 +6586,13 @@
         <v>6644194</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>296</v>
+        <v>422</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>221</v>
+        <v>423</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6612,7 +6648,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -6636,7 +6672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0D5BF5-6463-418E-8A8E-DC5BB90BEF8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025C6A78-7466-42A1-A1BF-6C93B90698AC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6653,7 +6689,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6760,13 +6796,13 @@
         <v>15587</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>111</v>
+        <v>426</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -6775,13 +6811,13 @@
         <v>5224</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="M4" s="7">
         <v>27</v>
@@ -6793,10 +6829,10 @@
         <v>161</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6811,13 +6847,13 @@
         <v>244711</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>119</v>
+        <v>435</v>
       </c>
       <c r="H5" s="7">
         <v>525</v>
@@ -6826,13 +6862,13 @@
         <v>266179</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="M5" s="7">
         <v>842</v>
@@ -6841,13 +6877,13 @@
         <v>510889</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6915,13 +6951,13 @@
         <v>24403</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>258</v>
+        <v>442</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="H7" s="7">
         <v>40</v>
@@ -6930,13 +6966,13 @@
         <v>29323</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>434</v>
+        <v>148</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
@@ -6945,13 +6981,13 @@
         <v>53726</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>436</v>
+        <v>93</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6966,13 +7002,13 @@
         <v>493824</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>267</v>
+        <v>449</v>
       </c>
       <c r="H8" s="7">
         <v>675</v>
@@ -6981,13 +7017,13 @@
         <v>523893</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>442</v>
+        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>1040</v>
@@ -6996,13 +7032,13 @@
         <v>1017717</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>443</v>
+        <v>103</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7070,13 +7106,13 @@
         <v>9328</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>243</v>
+        <v>453</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -7085,13 +7121,13 @@
         <v>8557</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>448</v>
+        <v>215</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -7100,13 +7136,13 @@
         <v>17885</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>361</v>
+        <v>458</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>316</v>
+        <v>459</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>449</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7121,13 +7157,13 @@
         <v>312392</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>251</v>
+        <v>460</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="H11" s="7">
         <v>524</v>
@@ -7136,13 +7172,13 @@
         <v>364727</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>453</v>
+        <v>223</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="M11" s="7">
         <v>875</v>
@@ -7151,13 +7187,13 @@
         <v>677118</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>367</v>
+        <v>465</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>454</v>
+        <v>266</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>323</v>
+        <v>466</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7225,13 +7261,13 @@
         <v>5808</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>457</v>
+        <v>290</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -7240,13 +7276,13 @@
         <v>26390</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -7255,13 +7291,13 @@
         <v>32198</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>110</v>
+        <v>472</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>461</v>
+        <v>371</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7276,13 +7312,13 @@
         <v>316432</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>464</v>
+        <v>297</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="H14" s="7">
         <v>584</v>
@@ -7291,13 +7327,13 @@
         <v>401810</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="M14" s="7">
         <v>871</v>
@@ -7306,13 +7342,13 @@
         <v>718242</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>117</v>
+        <v>479</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>470</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7380,13 +7416,13 @@
         <v>7139</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -7395,13 +7431,13 @@
         <v>9271</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>303</v>
+        <v>485</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>375</v>
+        <v>486</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -7410,13 +7446,13 @@
         <v>16410</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>476</v>
+        <v>304</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7431,13 +7467,13 @@
         <v>189609</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="H17" s="7">
         <v>474</v>
@@ -7446,13 +7482,13 @@
         <v>222632</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>380</v>
+        <v>493</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>312</v>
+        <v>494</v>
       </c>
       <c r="M17" s="7">
         <v>745</v>
@@ -7461,13 +7497,13 @@
         <v>412241</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>484</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7535,13 +7571,13 @@
         <v>7041</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>143</v>
+        <v>497</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>215</v>
+        <v>147</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -7550,13 +7586,13 @@
         <v>10255</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="M19" s="7">
         <v>20</v>
@@ -7565,13 +7601,13 @@
         <v>17296</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>501</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>226</v>
+        <v>502</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>93</v>
+        <v>503</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7586,13 +7622,13 @@
         <v>270182</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>152</v>
+        <v>504</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>223</v>
+        <v>153</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="H20" s="7">
         <v>447</v>
@@ -7601,13 +7637,13 @@
         <v>265367</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>489</v>
+        <v>506</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="M20" s="7">
         <v>811</v>
@@ -7616,13 +7652,13 @@
         <v>535549</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>49</v>
+        <v>508</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>103</v>
+        <v>509</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>234</v>
+        <v>510</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7690,13 +7726,13 @@
         <v>16971</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>491</v>
+        <v>257</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>492</v>
+        <v>511</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>493</v>
+        <v>512</v>
       </c>
       <c r="H22" s="7">
         <v>69</v>
@@ -7705,13 +7741,13 @@
         <v>50846</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>494</v>
+        <v>513</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>496</v>
+        <v>515</v>
       </c>
       <c r="M22" s="7">
         <v>88</v>
@@ -7720,13 +7756,13 @@
         <v>67817</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>497</v>
+        <v>516</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>499</v>
+        <v>518</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7741,13 +7777,13 @@
         <v>610783</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>500</v>
+        <v>264</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="H23" s="7">
         <v>891</v>
@@ -7756,13 +7792,13 @@
         <v>753357</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>504</v>
+        <v>522</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="M23" s="7">
         <v>1471</v>
@@ -7771,13 +7807,13 @@
         <v>1364140</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>507</v>
+        <v>525</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>508</v>
+        <v>526</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7833,7 +7869,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7845,13 +7881,13 @@
         <v>27419</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>510</v>
+        <v>261</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="H25" s="7">
         <v>66</v>
@@ -7860,13 +7896,13 @@
         <v>52345</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>514</v>
+        <v>531</v>
       </c>
       <c r="M25" s="7">
         <v>93</v>
@@ -7875,13 +7911,13 @@
         <v>79764</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>370</v>
+        <v>532</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7896,13 +7932,13 @@
         <v>832009</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>518</v>
+        <v>270</v>
       </c>
       <c r="H26" s="7">
         <v>994</v>
@@ -7911,13 +7947,13 @@
         <v>812686</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>520</v>
+        <v>537</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>521</v>
+        <v>538</v>
       </c>
       <c r="M26" s="7">
         <v>1729</v>
@@ -7926,13 +7962,13 @@
         <v>1644695</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>522</v>
+        <v>539</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>376</v>
+        <v>540</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8000,13 +8036,13 @@
         <v>113695</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>523</v>
+        <v>541</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>524</v>
+        <v>442</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>525</v>
+        <v>542</v>
       </c>
       <c r="H28" s="7">
         <v>245</v>
@@ -8015,13 +8051,13 @@
         <v>192211</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>526</v>
+        <v>316</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>527</v>
+        <v>343</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="M28" s="7">
         <v>349</v>
@@ -8033,10 +8069,10 @@
         <v>38</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>211</v>
+        <v>96</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>529</v>
+        <v>544</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8048,16 +8084,16 @@
         <v>3270</v>
       </c>
       <c r="D29" s="7">
-        <v>3269941</v>
+        <v>3269942</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>532</v>
+        <v>449</v>
       </c>
       <c r="H29" s="7">
         <v>5114</v>
@@ -8066,13 +8102,13 @@
         <v>3610651</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>533</v>
+        <v>324</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>535</v>
+        <v>351</v>
       </c>
       <c r="M29" s="7">
         <v>8384</v>
@@ -8084,10 +8120,10 @@
         <v>47</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>221</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8099,7 +8135,7 @@
         <v>3374</v>
       </c>
       <c r="D30" s="7">
-        <v>3383636</v>
+        <v>3383637</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8143,7 +8179,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A08-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A08-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC2E3791-1F43-43AC-89BC-687ED792233E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53BECEC2-B8E4-4A6C-A019-BC30871B9DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{665984A9-7F43-479A-B33C-6D900BDC6A2B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8A86841C-5986-441F-B61B-7B4B8F2DC938}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="539">
   <si>
     <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>2,31%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
   </si>
   <si>
     <t>1,58%</t>
   </si>
   <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
   </si>
   <si>
     <t>1,95%</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>97,69%</t>
   </si>
   <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
   </si>
   <si>
     <t>98,42%</t>
   </si>
   <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
   </si>
   <si>
     <t>98,05%</t>
   </si>
   <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1552 +140,1522 @@
     <t>2,21%</t>
   </si>
   <si>
-    <t>1,06%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
   </si>
   <si>
     <t>3,98%</t>
   </si>
   <si>
-    <t>6,27%</t>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
   </si>
   <si>
     <t>4,18%</t>
   </si>
   <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
   </si>
   <si>
     <t>95,82%</t>
   </si>
   <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
   </si>
   <si>
     <t>5,01%</t>
   </si>
   <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
   </si>
   <si>
     <t>94,99%</t>
   </si>
   <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
   </si>
   <si>
     <t>5,23%</t>
   </si>
   <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
   </si>
   <si>
     <t>94,77%</t>
   </si>
   <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
   </si>
   <si>
     <t>2,03%</t>
   </si>
   <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
   </si>
   <si>
     <t>97,97%</t>
   </si>
   <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
   </si>
   <si>
     <t>5,05%</t>
   </si>
   <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
   </si>
   <si>
     <t>94,95%</t>
   </si>
   <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
+    <t>93,48%</t>
   </si>
   <si>
     <t>95,7%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
   </si>
 </sst>
 </file>
@@ -2097,7 +2067,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74ACD9C0-6A56-4433-B33A-D63290A3518A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208CAD58-CF87-4D42-97B9-02FF7201A444}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3184,10 +3154,10 @@
         <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3202,13 +3172,13 @@
         <v>605574</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>603</v>
@@ -3217,13 +3187,13 @@
         <v>619817</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>1192</v>
@@ -3232,13 +3202,13 @@
         <v>1225391</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>67</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3294,7 +3264,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3306,13 +3276,13 @@
         <v>28287</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H25" s="7">
         <v>29</v>
@@ -3321,13 +3291,13 @@
         <v>29157</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M25" s="7">
         <v>57</v>
@@ -3336,13 +3306,13 @@
         <v>57444</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3357,13 +3327,13 @@
         <v>714490</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H26" s="7">
         <v>716</v>
@@ -3372,7 +3342,7 @@
         <v>754354</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>153</v>
@@ -3476,13 +3446,13 @@
         <v>132277</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M28" s="7">
         <v>202</v>
@@ -3491,13 +3461,13 @@
         <v>210489</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3509,16 +3479,16 @@
         <v>3139</v>
       </c>
       <c r="D29" s="7">
-        <v>3197313</v>
+        <v>3197312</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H29" s="7">
         <v>3169</v>
@@ -3527,13 +3497,13 @@
         <v>3246921</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>170</v>
+        <v>106</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M29" s="7">
         <v>6308</v>
@@ -3542,13 +3512,13 @@
         <v>6444234</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3560,7 +3530,7 @@
         <v>3213</v>
       </c>
       <c r="D30" s="7">
-        <v>3275526</v>
+        <v>3275525</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3604,7 +3574,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3628,7 +3598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15ABC0ED-78C7-4DDE-B5AF-3CBF906FF6C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC24840F-FCCA-4849-9A2C-74F6C82A0987}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3645,7 +3615,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3750,39 +3720,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3795,39 +3765,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3840,39 +3810,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3889,13 +3859,13 @@
         <v>32351</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H7" s="7">
         <v>34</v>
@@ -3904,13 +3874,13 @@
         <v>37869</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>183</v>
+        <v>93</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M7" s="7">
         <v>60</v>
@@ -3919,13 +3889,13 @@
         <v>70220</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3940,13 +3910,13 @@
         <v>473176</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H8" s="7">
         <v>445</v>
@@ -3955,13 +3925,13 @@
         <v>484862</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>193</v>
+        <v>103</v>
       </c>
       <c r="M8" s="7">
         <v>891</v>
@@ -3970,13 +3940,13 @@
         <v>958038</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,13 +4014,13 @@
         <v>6822</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -4059,13 +4029,13 @@
         <v>24363</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -4074,13 +4044,13 @@
         <v>31184</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>113</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4095,13 +4065,13 @@
         <v>316294</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>207</v>
+        <v>23</v>
       </c>
       <c r="H11" s="7">
         <v>294</v>
@@ -4110,13 +4080,13 @@
         <v>316657</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="M11" s="7">
         <v>605</v>
@@ -4125,13 +4095,13 @@
         <v>632952</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>120</v>
+        <v>205</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,13 +4169,13 @@
         <v>18384</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -4214,13 +4184,13 @@
         <v>35204</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="M13" s="7">
         <v>51</v>
@@ -4229,13 +4199,13 @@
         <v>53588</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>219</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4250,13 +4220,13 @@
         <v>645802</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="H14" s="7">
         <v>586</v>
@@ -4265,13 +4235,13 @@
         <v>633113</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>223</v>
+        <v>149</v>
       </c>
       <c r="M14" s="7">
         <v>1191</v>
@@ -4280,13 +4250,13 @@
         <v>1278915</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>225</v>
+        <v>153</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,13 +4324,13 @@
         <v>8981</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>17</v>
+        <v>220</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -4369,13 +4339,13 @@
         <v>21086</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>179</v>
+        <v>223</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="M16" s="7">
         <v>30</v>
@@ -4384,13 +4354,13 @@
         <v>30067</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4405,13 +4375,13 @@
         <v>203637</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>27</v>
+        <v>230</v>
       </c>
       <c r="H17" s="7">
         <v>191</v>
@@ -4420,13 +4390,13 @@
         <v>198505</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="M17" s="7">
         <v>378</v>
@@ -4435,13 +4405,13 @@
         <v>402142</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,13 +4479,13 @@
         <v>10130</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -4524,13 +4494,13 @@
         <v>14225</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>246</v>
+        <v>182</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -4539,13 +4509,13 @@
         <v>24356</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>115</v>
+        <v>242</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4560,13 +4530,13 @@
         <v>263851</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H20" s="7">
         <v>254</v>
@@ -4575,13 +4545,13 @@
         <v>263828</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>252</v>
+        <v>189</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M20" s="7">
         <v>506</v>
@@ -4590,13 +4560,13 @@
         <v>527678</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>122</v>
+        <v>250</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4664,13 +4634,13 @@
         <v>10288</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>255</v>
+        <v>112</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>257</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -4679,13 +4649,13 @@
         <v>28292</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>258</v>
+        <v>34</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>259</v>
+        <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>95</v>
+        <v>254</v>
       </c>
       <c r="M22" s="7">
         <v>35</v>
@@ -4694,13 +4664,13 @@
         <v>38579</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,13 +4685,13 @@
         <v>652500</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>263</v>
+        <v>121</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>264</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="H23" s="7">
         <v>611</v>
@@ -4730,13 +4700,13 @@
         <v>665561</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>266</v>
+        <v>42</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>104</v>
+        <v>259</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>267</v>
+        <v>133</v>
       </c>
       <c r="M23" s="7">
         <v>1219</v>
@@ -4745,13 +4715,13 @@
         <v>1318062</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,7 +4777,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4819,13 +4789,13 @@
         <v>29653</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>54</v>
+        <v>264</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="H25" s="7">
         <v>33</v>
@@ -4834,13 +4804,13 @@
         <v>34167</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="M25" s="7">
         <v>60</v>
@@ -4849,13 +4819,13 @@
         <v>63821</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4870,13 +4840,13 @@
         <v>747319</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>63</v>
+        <v>273</v>
       </c>
       <c r="H26" s="7">
         <v>722</v>
@@ -4885,13 +4855,13 @@
         <v>787353</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="M26" s="7">
         <v>1410</v>
@@ -4900,13 +4870,13 @@
         <v>1534671</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4974,13 +4944,13 @@
         <v>116610</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H28" s="7">
         <v>183</v>
@@ -4989,13 +4959,13 @@
         <v>195206</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="M28" s="7">
         <v>288</v>
@@ -5004,13 +4974,13 @@
         <v>311815</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>93</v>
+        <v>286</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5025,13 +4995,13 @@
         <v>3302578</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="H29" s="7">
         <v>3103</v>
@@ -5040,28 +5010,28 @@
         <v>3349880</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="M29" s="7">
         <v>6200</v>
       </c>
       <c r="N29" s="7">
-        <v>6652459</v>
+        <v>6652458</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>103</v>
+        <v>293</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5103,7 +5073,7 @@
         <v>6488</v>
       </c>
       <c r="N30" s="7">
-        <v>6964274</v>
+        <v>6964273</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5117,7 +5087,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -5141,7 +5111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B12B0A3-3211-48C2-87B6-0542B12DD14E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226CE68F-818D-4BC1-A246-B7ED16418BD0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5158,7 +5128,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5265,13 +5235,13 @@
         <v>11292</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -5280,13 +5250,13 @@
         <v>13016</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>243</v>
+        <v>301</v>
       </c>
       <c r="M4" s="7">
         <v>23</v>
@@ -5295,13 +5265,13 @@
         <v>24309</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>305</v>
+        <v>192</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>213</v>
+        <v>302</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5316,13 +5286,13 @@
         <v>282469</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H5" s="7">
         <v>265</v>
@@ -5331,13 +5301,13 @@
         <v>275687</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>249</v>
+        <v>308</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="M5" s="7">
         <v>520</v>
@@ -5346,13 +5316,13 @@
         <v>558155</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>312</v>
+        <v>200</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>220</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5420,13 +5390,13 @@
         <v>14265</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>163</v>
+        <v>313</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -5435,13 +5405,13 @@
         <v>36267</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
@@ -5450,13 +5420,13 @@
         <v>50532</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>319</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>320</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5471,13 +5441,13 @@
         <v>488310</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>171</v>
+        <v>319</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H8" s="7">
         <v>449</v>
@@ -5486,13 +5456,13 @@
         <v>486817</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="M8" s="7">
         <v>910</v>
@@ -5501,13 +5471,13 @@
         <v>975127</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5575,13 +5545,13 @@
         <v>9038</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -5590,13 +5560,13 @@
         <v>10246</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>59</v>
+        <v>328</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -5605,13 +5575,13 @@
         <v>19283</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>333</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>290</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5626,13 +5596,13 @@
         <v>309527</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="H11" s="7">
         <v>321</v>
@@ -5641,7 +5611,7 @@
         <v>326063</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>67</v>
+        <v>335</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>336</v>
@@ -5659,7 +5629,7 @@
         <v>338</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>297</v>
+        <v>185</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>339</v>
@@ -5745,13 +5715,13 @@
         <v>25386</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>320</v>
+        <v>343</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -5760,13 +5730,13 @@
         <v>41044</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>16</v>
+        <v>347</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5781,13 +5751,13 @@
         <v>354307</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H14" s="7">
         <v>336</v>
@@ -5796,13 +5766,13 @@
         <v>361897</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M14" s="7">
         <v>676</v>
@@ -5811,13 +5781,13 @@
         <v>716203</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>25</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5885,13 +5855,13 @@
         <v>4457</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>355</v>
+        <v>72</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -5900,13 +5870,13 @@
         <v>10139</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>356</v>
+        <v>78</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>357</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -5915,13 +5885,13 @@
         <v>14596</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>359</v>
+        <v>19</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>360</v>
+        <v>74</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>361</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5936,13 +5906,13 @@
         <v>206764</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>362</v>
+        <v>80</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H17" s="7">
         <v>212</v>
@@ -5951,13 +5921,13 @@
         <v>208448</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>364</v>
+        <v>86</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>366</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>419</v>
@@ -5966,13 +5936,13 @@
         <v>415212</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>367</v>
+        <v>28</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>368</v>
+        <v>289</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>369</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6040,13 +6010,13 @@
         <v>9700</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -6055,13 +6025,13 @@
         <v>13669</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -6070,13 +6040,13 @@
         <v>23369</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>376</v>
+        <v>176</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>260</v>
+        <v>207</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6091,13 +6061,13 @@
         <v>253423</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="H20" s="7">
         <v>251</v>
@@ -6106,13 +6076,13 @@
         <v>259446</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="M20" s="7">
         <v>500</v>
@@ -6121,13 +6091,13 @@
         <v>512869</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>384</v>
+        <v>185</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6195,13 +6165,13 @@
         <v>14761</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>161</v>
+        <v>378</v>
       </c>
       <c r="H22" s="7">
         <v>35</v>
@@ -6210,13 +6180,13 @@
         <v>39699</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="M22" s="7">
         <v>47</v>
@@ -6225,13 +6195,13 @@
         <v>54460</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6246,13 +6216,13 @@
         <v>641797</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>170</v>
+        <v>386</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H23" s="7">
         <v>611</v>
@@ -6261,13 +6231,13 @@
         <v>651595</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="M23" s="7">
         <v>1179</v>
@@ -6276,13 +6246,13 @@
         <v>1293392</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6338,7 +6308,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6350,13 +6320,13 @@
         <v>25065</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>204</v>
+        <v>394</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>163</v>
+        <v>396</v>
       </c>
       <c r="H25" s="7">
         <v>39</v>
@@ -6365,13 +6335,13 @@
         <v>42041</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>302</v>
+        <v>399</v>
       </c>
       <c r="M25" s="7">
         <v>64</v>
@@ -6380,13 +6350,13 @@
         <v>67106</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>36</v>
+        <v>400</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>405</v>
+        <v>197</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>277</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6401,13 +6371,13 @@
         <v>753518</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>212</v>
+        <v>401</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>171</v>
+        <v>402</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H26" s="7">
         <v>716</v>
@@ -6416,13 +6386,13 @@
         <v>784126</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>308</v>
+        <v>405</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="M26" s="7">
         <v>1441</v>
@@ -6431,13 +6401,13 @@
         <v>1537644</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>46</v>
+        <v>407</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>283</v>
+        <v>150</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>409</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6508,10 +6478,10 @@
         <v>76</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>144</v>
+        <v>409</v>
       </c>
       <c r="H28" s="7">
         <v>177</v>
@@ -6520,13 +6490,13 @@
         <v>190462</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="M28" s="7">
         <v>277</v>
@@ -6535,13 +6505,13 @@
         <v>294698</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6559,7 +6529,7 @@
         <v>85</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>151</v>
+        <v>416</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>417</v>
@@ -6648,7 +6618,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -6672,7 +6642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025C6A78-7466-42A1-A1BF-6C93B90698AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A23D67-73DC-4FF8-B09C-B3CA05D6D0B6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6811,13 +6781,13 @@
         <v>5224</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="M4" s="7">
         <v>27</v>
@@ -6826,13 +6796,13 @@
         <v>20811</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>161</v>
+        <v>96</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6847,13 +6817,13 @@
         <v>244711</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="H5" s="7">
         <v>525</v>
@@ -6862,13 +6832,13 @@
         <v>266179</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="M5" s="7">
         <v>842</v>
@@ -6877,13 +6847,13 @@
         <v>510889</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>170</v>
+        <v>106</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6951,13 +6921,13 @@
         <v>24403</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>443</v>
       </c>
       <c r="H7" s="7">
         <v>40</v>
@@ -6966,13 +6936,13 @@
         <v>29323</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>444</v>
+        <v>384</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
@@ -6981,13 +6951,13 @@
         <v>53726</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>93</v>
+        <v>443</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7002,13 +6972,13 @@
         <v>493824</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>449</v>
       </c>
       <c r="H8" s="7">
         <v>675</v>
@@ -7017,10 +6987,10 @@
         <v>523893</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>450</v>
+        <v>392</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>155</v>
@@ -7032,13 +7002,13 @@
         <v>1017717</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>103</v>
+        <v>449</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7106,13 +7076,13 @@
         <v>9328</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>455</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -7121,13 +7091,13 @@
         <v>8557</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -7136,13 +7106,13 @@
         <v>17885</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>458</v>
+        <v>264</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>258</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7157,13 +7127,13 @@
         <v>312392</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>462</v>
       </c>
       <c r="H11" s="7">
         <v>524</v>
@@ -7172,13 +7142,13 @@
         <v>364727</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>464</v>
       </c>
       <c r="M11" s="7">
         <v>875</v>
@@ -7187,13 +7157,13 @@
         <v>677118</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>465</v>
+        <v>273</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>266</v>
+        <v>42</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7261,13 +7231,13 @@
         <v>5808</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -7276,13 +7246,13 @@
         <v>26390</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>471</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -7291,13 +7261,13 @@
         <v>32198</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>472</v>
+        <v>36</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>371</v>
+        <v>238</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7312,13 +7282,13 @@
         <v>316432</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="H14" s="7">
         <v>584</v>
@@ -7327,13 +7297,13 @@
         <v>401810</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="M14" s="7">
         <v>871</v>
@@ -7342,13 +7312,13 @@
         <v>718242</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>479</v>
+        <v>46</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>380</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7416,13 +7386,13 @@
         <v>7139</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -7431,13 +7401,13 @@
         <v>9271</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>485</v>
+        <v>341</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -7446,13 +7416,13 @@
         <v>16410</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>304</v>
+        <v>483</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7467,13 +7437,13 @@
         <v>189609</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="H17" s="7">
         <v>474</v>
@@ -7482,13 +7452,13 @@
         <v>222632</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>494</v>
+        <v>351</v>
       </c>
       <c r="M17" s="7">
         <v>745</v>
@@ -7497,13 +7467,13 @@
         <v>412241</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>311</v>
+        <v>492</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7571,13 +7541,13 @@
         <v>7041</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>147</v>
+        <v>495</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -7586,13 +7556,13 @@
         <v>10255</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="M19" s="7">
         <v>20</v>
@@ -7601,13 +7571,13 @@
         <v>17296</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>501</v>
+        <v>269</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7622,13 +7592,13 @@
         <v>270182</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>153</v>
+        <v>501</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H20" s="7">
         <v>447</v>
@@ -7637,13 +7607,13 @@
         <v>265367</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M20" s="7">
         <v>811</v>
@@ -7652,13 +7622,13 @@
         <v>535549</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>508</v>
+        <v>278</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7726,13 +7696,13 @@
         <v>16971</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>257</v>
+        <v>53</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="H22" s="7">
         <v>69</v>
@@ -7741,13 +7711,13 @@
         <v>50846</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>513</v>
+        <v>364</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="M22" s="7">
         <v>88</v>
@@ -7756,13 +7726,13 @@
         <v>67817</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>516</v>
+        <v>282</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7777,13 +7747,13 @@
         <v>610783</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>264</v>
+        <v>61</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="H23" s="7">
         <v>891</v>
@@ -7792,13 +7762,13 @@
         <v>753357</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>521</v>
+        <v>370</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="M23" s="7">
         <v>1471</v>
@@ -7807,13 +7777,13 @@
         <v>1364140</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>524</v>
+        <v>291</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7869,7 +7839,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7881,13 +7851,13 @@
         <v>27419</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>527</v>
+        <v>59</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>261</v>
+        <v>519</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="H25" s="7">
         <v>66</v>
@@ -7896,13 +7866,13 @@
         <v>52345</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="M25" s="7">
         <v>93</v>
@@ -7911,13 +7881,13 @@
         <v>79764</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>56</v>
+        <v>162</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>532</v>
+        <v>409</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7932,13 +7902,13 @@
         <v>832009</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>534</v>
+        <v>67</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>270</v>
+        <v>526</v>
       </c>
       <c r="H26" s="7">
         <v>994</v>
@@ -7947,13 +7917,13 @@
         <v>812686</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="M26" s="7">
         <v>1729</v>
@@ -7962,13 +7932,13 @@
         <v>1644695</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>64</v>
+        <v>168</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>540</v>
+        <v>416</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8036,13 +8006,13 @@
         <v>113695</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>542</v>
+        <v>378</v>
       </c>
       <c r="H28" s="7">
         <v>245</v>
@@ -8051,13 +8021,13 @@
         <v>192211</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>316</v>
+        <v>532</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>343</v>
+        <v>533</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="M28" s="7">
         <v>349</v>
@@ -8069,10 +8039,10 @@
         <v>38</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>544</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8087,13 +8057,13 @@
         <v>3269942</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>546</v>
+        <v>386</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H29" s="7">
         <v>5114</v>
@@ -8102,13 +8072,13 @@
         <v>3610651</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>324</v>
+        <v>536</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>351</v>
+        <v>538</v>
       </c>
       <c r="M29" s="7">
         <v>8384</v>
@@ -8120,10 +8090,10 @@
         <v>47</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>548</v>
+        <v>236</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8179,7 +8149,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A08-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A08-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53BECEC2-B8E4-4A6C-A019-BC30871B9DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D19E52D3-6819-4C7F-B772-C5CE461BD041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8A86841C-5986-441F-B61B-7B4B8F2DC938}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BACD07EE-DE7F-423A-B772-8D968C155D4F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="537">
   <si>
     <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,1591 +71,1585 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>2,31%</t>
   </si>
   <si>
-    <t>0,9%</t>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
   </si>
   <si>
     <t>4,97%</t>
   </si>
   <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
   </si>
   <si>
     <t>3,4%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
   </si>
   <si>
     <t>96,6%</t>
   </si>
   <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
   </si>
   <si>
     <t>2,7%</t>
   </si>
   <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
   </si>
   <si>
     <t>3,19%</t>
   </si>
   <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
   </si>
   <si>
     <t>96,81%</t>
   </si>
   <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
   </si>
   <si>
     <t>94,27%</t>
   </si>
   <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
   </si>
   <si>
     <t>5,11%</t>
   </si>
   <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
   </si>
   <si>
     <t>94,89%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
   </si>
 </sst>
 </file>
@@ -2067,7 +2061,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208CAD58-CF87-4D42-97B9-02FF7201A444}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8CBBBF-7958-4CAF-AE25-750BB13B4464}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3142,7 +3136,7 @@
         <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="M22" s="7">
         <v>27</v>
@@ -3151,13 +3145,13 @@
         <v>27855</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>90</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,13 +3166,13 @@
         <v>605574</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>603</v>
@@ -3187,10 +3181,10 @@
         <v>619817</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>136</v>
+        <v>46</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>137</v>
@@ -3205,10 +3199,10 @@
         <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3264,7 +3258,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3276,13 +3270,13 @@
         <v>28287</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H25" s="7">
         <v>29</v>
@@ -3291,13 +3285,13 @@
         <v>29157</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>144</v>
+        <v>70</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M25" s="7">
         <v>57</v>
@@ -3306,13 +3300,13 @@
         <v>57444</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3327,13 +3321,13 @@
         <v>714490</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H26" s="7">
         <v>716</v>
@@ -3342,13 +3336,13 @@
         <v>754354</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="M26" s="7">
         <v>1423</v>
@@ -3446,10 +3440,10 @@
         <v>132277</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>96</v>
+        <v>161</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>162</v>
@@ -3464,10 +3458,10 @@
         <v>163</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>164</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,28 +3491,28 @@
         <v>3246921</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>106</v>
+        <v>168</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>169</v>
+        <v>98</v>
       </c>
       <c r="M29" s="7">
         <v>6308</v>
       </c>
       <c r="N29" s="7">
-        <v>6444234</v>
+        <v>6444233</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>170</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3560,7 +3554,7 @@
         <v>6510</v>
       </c>
       <c r="N30" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3598,7 +3592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC24840F-FCCA-4849-9A2C-74F6C82A0987}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E30DCB-7E8D-493B-89CA-2D6FFB0ACED7}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3862,10 +3856,10 @@
         <v>175</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H7" s="7">
         <v>34</v>
@@ -3874,10 +3868,10 @@
         <v>37869</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>179</v>
@@ -3916,7 +3910,7 @@
         <v>184</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>185</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
         <v>445</v>
@@ -3925,13 +3919,13 @@
         <v>484862</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M8" s="7">
         <v>891</v>
@@ -4017,10 +4011,10 @@
         <v>191</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>192</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -4029,13 +4023,13 @@
         <v>24363</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -4044,13 +4038,13 @@
         <v>31184</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4071,7 +4065,7 @@
         <v>200</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>23</v>
+        <v>201</v>
       </c>
       <c r="H11" s="7">
         <v>294</v>
@@ -4080,13 +4074,13 @@
         <v>316657</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M11" s="7">
         <v>605</v>
@@ -4095,10 +4089,10 @@
         <v>632952</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>206</v>
@@ -4172,10 +4166,10 @@
         <v>207</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>125</v>
+        <v>208</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -4184,13 +4178,13 @@
         <v>35204</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>140</v>
+        <v>211</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M13" s="7">
         <v>51</v>
@@ -4199,13 +4193,13 @@
         <v>53588</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>145</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4220,13 +4214,13 @@
         <v>645802</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>132</v>
+        <v>218</v>
       </c>
       <c r="H14" s="7">
         <v>586</v>
@@ -4235,13 +4229,13 @@
         <v>633113</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>149</v>
+        <v>221</v>
       </c>
       <c r="M14" s="7">
         <v>1191</v>
@@ -4250,13 +4244,13 @@
         <v>1278915</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>153</v>
+        <v>223</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4324,13 +4318,13 @@
         <v>8981</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -4339,13 +4333,13 @@
         <v>21086</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M16" s="7">
         <v>30</v>
@@ -4354,13 +4348,13 @@
         <v>30067</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4375,13 +4369,13 @@
         <v>203637</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H17" s="7">
         <v>191</v>
@@ -4390,13 +4384,13 @@
         <v>198505</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="M17" s="7">
         <v>378</v>
@@ -4405,13 +4399,13 @@
         <v>402142</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4479,13 +4473,13 @@
         <v>10130</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>238</v>
+        <v>159</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -4494,13 +4488,13 @@
         <v>14225</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>240</v>
+        <v>72</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>182</v>
+        <v>244</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -4509,13 +4503,13 @@
         <v>24356</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4530,13 +4524,13 @@
         <v>263851</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>247</v>
+        <v>167</v>
       </c>
       <c r="H20" s="7">
         <v>254</v>
@@ -4545,13 +4539,13 @@
         <v>263828</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>248</v>
+        <v>80</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>189</v>
+        <v>250</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M20" s="7">
         <v>506</v>
@@ -4560,13 +4554,13 @@
         <v>527678</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4634,13 +4628,13 @@
         <v>10288</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>112</v>
+        <v>255</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -4649,13 +4643,13 @@
         <v>28292</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>34</v>
+        <v>257</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>127</v>
+        <v>258</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="M22" s="7">
         <v>35</v>
@@ -4664,13 +4658,13 @@
         <v>38579</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4685,13 +4679,13 @@
         <v>652500</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>121</v>
+        <v>263</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="H23" s="7">
         <v>611</v>
@@ -4700,13 +4694,13 @@
         <v>665561</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>42</v>
+        <v>265</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>133</v>
+        <v>267</v>
       </c>
       <c r="M23" s="7">
         <v>1219</v>
@@ -4715,13 +4709,13 @@
         <v>1318062</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4777,7 +4771,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4789,13 +4783,13 @@
         <v>29653</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="H25" s="7">
         <v>33</v>
@@ -4804,13 +4798,13 @@
         <v>34167</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>128</v>
+        <v>243</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>267</v>
+        <v>95</v>
       </c>
       <c r="M25" s="7">
         <v>60</v>
@@ -4819,13 +4813,13 @@
         <v>63821</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4840,13 +4834,13 @@
         <v>747319</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="H26" s="7">
         <v>722</v>
@@ -4855,13 +4849,13 @@
         <v>787353</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>275</v>
+        <v>104</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>135</v>
+        <v>251</v>
       </c>
       <c r="M26" s="7">
         <v>1410</v>
@@ -4870,13 +4864,13 @@
         <v>1534671</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4944,13 +4938,13 @@
         <v>116610</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>207</v>
+        <v>286</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="H28" s="7">
         <v>183</v>
@@ -4959,13 +4953,13 @@
         <v>195206</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>281</v>
+        <v>144</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="M28" s="7">
         <v>288</v>
@@ -4974,13 +4968,13 @@
         <v>311815</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4995,13 +4989,13 @@
         <v>3302578</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>213</v>
+        <v>294</v>
       </c>
       <c r="H29" s="7">
         <v>3103</v>
@@ -5010,28 +5004,28 @@
         <v>3349880</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>289</v>
+        <v>151</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="M29" s="7">
         <v>6200</v>
       </c>
       <c r="N29" s="7">
-        <v>6652458</v>
+        <v>6652459</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5073,7 +5067,7 @@
         <v>6488</v>
       </c>
       <c r="N30" s="7">
-        <v>6964273</v>
+        <v>6964274</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5111,7 +5105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226CE68F-818D-4BC1-A246-B7ED16418BD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FD9201-C4B8-427C-9F20-3FEAF9769135}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5128,7 +5122,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5235,13 +5229,13 @@
         <v>11292</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>298</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -5250,13 +5244,13 @@
         <v>13016</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="M4" s="7">
         <v>23</v>
@@ -5265,13 +5259,13 @@
         <v>24309</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>192</v>
+        <v>305</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5286,13 +5280,13 @@
         <v>282469</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>305</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H5" s="7">
         <v>265</v>
@@ -5301,13 +5295,13 @@
         <v>275687</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="M5" s="7">
         <v>520</v>
@@ -5316,13 +5310,13 @@
         <v>558155</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>200</v>
+        <v>313</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5390,13 +5384,13 @@
         <v>14265</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -5405,13 +5399,13 @@
         <v>36267</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
@@ -5420,13 +5414,13 @@
         <v>50532</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>244</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5441,13 +5435,13 @@
         <v>488310</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="H8" s="7">
         <v>449</v>
@@ -5456,13 +5450,13 @@
         <v>486817</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="M8" s="7">
         <v>910</v>
@@ -5471,13 +5465,13 @@
         <v>975127</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>251</v>
+        <v>328</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5545,13 +5539,13 @@
         <v>9038</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>327</v>
+        <v>273</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -5560,13 +5554,13 @@
         <v>10246</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -5575,13 +5569,13 @@
         <v>19283</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>176</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5596,13 +5590,13 @@
         <v>309527</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>333</v>
+        <v>279</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H11" s="7">
         <v>321</v>
@@ -5611,13 +5605,13 @@
         <v>326063</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M11" s="7">
         <v>647</v>
@@ -5626,13 +5620,13 @@
         <v>635591</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>185</v>
+        <v>342</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5700,13 +5694,13 @@
         <v>15657</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -5715,13 +5709,13 @@
         <v>25386</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -5730,13 +5724,13 @@
         <v>41044</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>347</v>
+        <v>147</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5751,13 +5745,13 @@
         <v>354307</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="H14" s="7">
         <v>336</v>
@@ -5766,13 +5760,13 @@
         <v>361897</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="M14" s="7">
         <v>676</v>
@@ -5781,13 +5775,13 @@
         <v>716203</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>357</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5858,10 +5852,10 @@
         <v>191</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>72</v>
+        <v>288</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -5870,13 +5864,13 @@
         <v>10139</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>241</v>
+        <v>361</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -5885,13 +5879,13 @@
         <v>14596</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>19</v>
+        <v>363</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>74</v>
+        <v>364</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>281</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5909,10 +5903,10 @@
         <v>199</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>80</v>
+        <v>296</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="H17" s="7">
         <v>212</v>
@@ -5921,13 +5915,13 @@
         <v>208448</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>249</v>
+        <v>367</v>
       </c>
       <c r="M17" s="7">
         <v>419</v>
@@ -5936,13 +5930,13 @@
         <v>415212</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>28</v>
+        <v>368</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>289</v>
+        <v>48</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>84</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6010,13 +6004,13 @@
         <v>9700</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -6025,13 +6019,13 @@
         <v>13669</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>365</v>
+        <v>291</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>366</v>
+        <v>70</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>367</v>
+        <v>244</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -6040,13 +6034,13 @@
         <v>23369</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>176</v>
+        <v>373</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>207</v>
+        <v>374</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6061,13 +6055,13 @@
         <v>253423</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="H20" s="7">
         <v>251</v>
@@ -6076,13 +6070,13 @@
         <v>259446</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>372</v>
+        <v>298</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>373</v>
+        <v>250</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>374</v>
+        <v>79</v>
       </c>
       <c r="M20" s="7">
         <v>500</v>
@@ -6091,13 +6085,13 @@
         <v>512869</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>185</v>
+        <v>379</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>213</v>
+        <v>381</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6165,13 +6159,13 @@
         <v>14761</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>377</v>
+        <v>71</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>378</v>
+        <v>161</v>
       </c>
       <c r="H22" s="7">
         <v>35</v>
@@ -6180,13 +6174,13 @@
         <v>39699</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>380</v>
+        <v>287</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="M22" s="7">
         <v>47</v>
@@ -6195,13 +6189,13 @@
         <v>54460</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6216,13 +6210,13 @@
         <v>641797</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>386</v>
+        <v>168</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>387</v>
+        <v>81</v>
       </c>
       <c r="H23" s="7">
         <v>611</v>
@@ -6231,13 +6225,13 @@
         <v>651595</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>390</v>
+        <v>293</v>
       </c>
       <c r="M23" s="7">
         <v>1179</v>
@@ -6308,7 +6302,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6326,7 +6320,7 @@
         <v>395</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>396</v>
+        <v>115</v>
       </c>
       <c r="H25" s="7">
         <v>39</v>
@@ -6335,13 +6329,13 @@
         <v>42041</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="M25" s="7">
         <v>64</v>
@@ -6350,13 +6344,13 @@
         <v>67106</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>197</v>
+        <v>394</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6371,13 +6365,13 @@
         <v>753518</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="H26" s="7">
         <v>716</v>
@@ -6386,13 +6380,13 @@
         <v>784126</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="M26" s="7">
         <v>1441</v>
@@ -6401,13 +6395,13 @@
         <v>1537644</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>206</v>
+        <v>400</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6478,10 +6472,10 @@
         <v>76</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>408</v>
+        <v>361</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H28" s="7">
         <v>177</v>
@@ -6490,13 +6484,13 @@
         <v>190462</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="M28" s="7">
         <v>277</v>
@@ -6505,13 +6499,13 @@
         <v>294698</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>414</v>
+        <v>211</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>415</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6529,10 +6523,10 @@
         <v>85</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>417</v>
+        <v>367</v>
       </c>
       <c r="H29" s="7">
         <v>3161</v>
@@ -6541,13 +6535,13 @@
         <v>3354080</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="M29" s="7">
         <v>6292</v>
@@ -6556,13 +6550,13 @@
         <v>6644194</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>422</v>
+        <v>296</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>423</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6642,7 +6636,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A23D67-73DC-4FF8-B09C-B3CA05D6D0B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9460B36-D6DD-4E39-B2CF-1E7BA19D8EC9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6659,7 +6653,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6766,13 +6760,13 @@
         <v>15587</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>426</v>
+        <v>111</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -6781,13 +6775,13 @@
         <v>5224</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>77</v>
+        <v>419</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="M4" s="7">
         <v>27</v>
@@ -6796,13 +6790,13 @@
         <v>20811</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>96</v>
+        <v>161</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6817,13 +6811,13 @@
         <v>244711</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>434</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
         <v>525</v>
@@ -6832,13 +6826,13 @@
         <v>266179</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>87</v>
+        <v>426</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="M5" s="7">
         <v>842</v>
@@ -6847,13 +6841,13 @@
         <v>510889</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>106</v>
+        <v>168</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6921,13 +6915,13 @@
         <v>24403</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>440</v>
+        <v>258</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="H7" s="7">
         <v>40</v>
@@ -6936,13 +6930,13 @@
         <v>29323</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>384</v>
+        <v>433</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>146</v>
+        <v>434</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
@@ -6951,13 +6945,13 @@
         <v>53726</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6972,13 +6966,13 @@
         <v>493824</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>447</v>
+        <v>267</v>
       </c>
       <c r="H8" s="7">
         <v>675</v>
@@ -6987,13 +6981,13 @@
         <v>523893</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>392</v>
+        <v>440</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>442</v>
       </c>
       <c r="M8" s="7">
         <v>1040</v>
@@ -7002,13 +6996,13 @@
         <v>1017717</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7076,13 +7070,13 @@
         <v>9328</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>451</v>
+        <v>243</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -7091,13 +7085,13 @@
         <v>8557</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -7106,13 +7100,13 @@
         <v>17885</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>264</v>
+        <v>361</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>457</v>
+        <v>316</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>34</v>
+        <v>449</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7127,13 +7121,13 @@
         <v>312392</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>458</v>
+        <v>251</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="H11" s="7">
         <v>524</v>
@@ -7142,13 +7136,13 @@
         <v>364727</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="M11" s="7">
         <v>875</v>
@@ -7157,13 +7151,13 @@
         <v>677118</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>273</v>
+        <v>367</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>42</v>
+        <v>454</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>464</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7231,13 +7225,13 @@
         <v>5808</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>284</v>
+        <v>457</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -7246,13 +7240,13 @@
         <v>26390</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -7261,13 +7255,13 @@
         <v>32198</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>238</v>
+        <v>461</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7282,13 +7276,13 @@
         <v>316432</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>292</v>
+        <v>464</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="H14" s="7">
         <v>584</v>
@@ -7297,13 +7291,13 @@
         <v>401810</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="M14" s="7">
         <v>871</v>
@@ -7312,13 +7306,13 @@
         <v>718242</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>247</v>
+        <v>470</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7386,13 +7380,13 @@
         <v>7139</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -7401,13 +7395,13 @@
         <v>9271</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>341</v>
+        <v>303</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>481</v>
+        <v>375</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -7416,13 +7410,13 @@
         <v>16410</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7437,13 +7431,13 @@
         <v>189609</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="H17" s="7">
         <v>474</v>
@@ -7452,13 +7446,13 @@
         <v>222632</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>489</v>
+        <v>380</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="M17" s="7">
         <v>745</v>
@@ -7467,13 +7461,13 @@
         <v>412241</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7541,13 +7535,13 @@
         <v>7041</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>493</v>
+        <v>143</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>495</v>
+        <v>215</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -7556,13 +7550,13 @@
         <v>10255</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="M19" s="7">
         <v>20</v>
@@ -7571,13 +7565,13 @@
         <v>17296</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>269</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>498</v>
+        <v>226</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>499</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7592,13 +7586,13 @@
         <v>270182</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>500</v>
+        <v>152</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>501</v>
+        <v>223</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="H20" s="7">
         <v>447</v>
@@ -7607,13 +7601,13 @@
         <v>265367</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="M20" s="7">
         <v>811</v>
@@ -7622,13 +7616,13 @@
         <v>535549</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>278</v>
+        <v>49</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>505</v>
+        <v>103</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>506</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7696,13 +7690,13 @@
         <v>16971</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>53</v>
+        <v>491</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="H22" s="7">
         <v>69</v>
@@ -7711,13 +7705,13 @@
         <v>50846</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>364</v>
+        <v>494</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="M22" s="7">
         <v>88</v>
@@ -7726,13 +7720,13 @@
         <v>67817</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>282</v>
+        <v>497</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7747,13 +7741,13 @@
         <v>610783</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>61</v>
+        <v>500</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="H23" s="7">
         <v>891</v>
@@ -7762,13 +7756,13 @@
         <v>753357</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>370</v>
+        <v>503</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="M23" s="7">
         <v>1471</v>
@@ -7777,13 +7771,13 @@
         <v>1364140</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>291</v>
+        <v>506</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7839,7 +7833,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7851,13 +7845,13 @@
         <v>27419</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>59</v>
+        <v>509</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="H25" s="7">
         <v>66</v>
@@ -7866,13 +7860,13 @@
         <v>52345</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="M25" s="7">
         <v>93</v>
@@ -7881,13 +7875,13 @@
         <v>79764</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>409</v>
+        <v>370</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7902,13 +7896,13 @@
         <v>832009</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>67</v>
+        <v>516</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="H26" s="7">
         <v>994</v>
@@ -7917,13 +7911,13 @@
         <v>812686</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="M26" s="7">
         <v>1729</v>
@@ -7932,13 +7926,13 @@
         <v>1644695</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>416</v>
+        <v>376</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8006,13 +8000,13 @@
         <v>113695</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>440</v>
+        <v>524</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>378</v>
+        <v>525</v>
       </c>
       <c r="H28" s="7">
         <v>245</v>
@@ -8021,13 +8015,13 @@
         <v>192211</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="M28" s="7">
         <v>349</v>
@@ -8039,10 +8033,10 @@
         <v>38</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>143</v>
+        <v>211</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>226</v>
+        <v>529</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8054,16 +8048,16 @@
         <v>3270</v>
       </c>
       <c r="D29" s="7">
-        <v>3269942</v>
+        <v>3269941</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>386</v>
+        <v>531</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>447</v>
+        <v>532</v>
       </c>
       <c r="H29" s="7">
         <v>5114</v>
@@ -8072,13 +8066,13 @@
         <v>3610651</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="M29" s="7">
         <v>8384</v>
@@ -8090,10 +8084,10 @@
         <v>47</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>236</v>
+        <v>536</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>152</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8105,7 +8099,7 @@
         <v>3374</v>
       </c>
       <c r="D30" s="7">
-        <v>3383637</v>
+        <v>3383636</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P16A08-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A08-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D19E52D3-6819-4C7F-B772-C5CE461BD041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95D070B8-A68C-497A-8A39-F8DA24495FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BACD07EE-DE7F-423A-B772-8D968C155D4F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{521E41FB-693C-4638-9430-05658E4D839A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="538">
   <si>
     <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -563,7 +563,52 @@
     <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
   </si>
   <si>
     <t>6,4%</t>
@@ -662,994 +707,952 @@
     <t>96,67%</t>
   </si>
   <si>
-    <t>2,77%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
   </si>
   <si>
     <t>1,63%</t>
   </si>
   <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
   </si>
   <si>
     <t>98,37%</t>
   </si>
   <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
   </si>
   <si>
     <t>2,43%</t>
   </si>
   <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
     <t>6,25%</t>
   </si>
   <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
   </si>
   <si>
     <t>93,75%</t>
   </si>
   <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
   </si>
   <si>
     <t>4,06%</t>
   </si>
   <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
   </si>
   <si>
     <t>95,94%</t>
   </si>
   <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
   </si>
 </sst>
 </file>
@@ -2061,7 +2064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8CBBBF-7958-4CAF-AE25-750BB13B4464}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4087154-05C1-470F-9F0A-7343B0F6D068}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3488,7 +3491,7 @@
         <v>3169</v>
       </c>
       <c r="I29" s="7">
-        <v>3246921</v>
+        <v>3246920</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>168</v>
@@ -3539,7 +3542,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3592,7 +3595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E30DCB-7E8D-493B-89CA-2D6FFB0ACED7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7C44F9-29B3-4D13-A50C-B44C9BC55375}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3710,43 +3713,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D4" s="7">
+        <v>11032</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>174</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="I4" s="7">
+        <v>19344</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="N4" s="7">
+        <v>30376</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>174</v>
+        <v>73</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3755,43 +3764,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>268</v>
+      </c>
+      <c r="D5" s="7">
+        <v>279171</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>232</v>
+      </c>
+      <c r="I5" s="7">
+        <v>260999</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>500</v>
+      </c>
+      <c r="N5" s="7">
+        <v>540170</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,43 +3815,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>278</v>
+      </c>
+      <c r="D6" s="7">
+        <v>290203</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>250</v>
+      </c>
+      <c r="I6" s="7">
+        <v>280343</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>528</v>
+      </c>
+      <c r="N6" s="7">
+        <v>570546</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,13 +3874,13 @@
         <v>32351</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="H7" s="7">
         <v>34</v>
@@ -3868,13 +3889,13 @@
         <v>37869</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="M7" s="7">
         <v>60</v>
@@ -3883,13 +3904,13 @@
         <v>70220</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,10 +3925,10 @@
         <v>473176</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>42</v>
@@ -3919,13 +3940,13 @@
         <v>484862</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="M8" s="7">
         <v>891</v>
@@ -3934,13 +3955,13 @@
         <v>958038</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,13 +4029,13 @@
         <v>6822</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -4023,13 +4044,13 @@
         <v>24363</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -4038,13 +4059,13 @@
         <v>31184</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4059,13 +4080,13 @@
         <v>316294</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="H11" s="7">
         <v>294</v>
@@ -4074,13 +4095,13 @@
         <v>316657</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="M11" s="7">
         <v>605</v>
@@ -4089,13 +4110,13 @@
         <v>632952</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,49 +4178,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>18384</v>
+        <v>7352</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>207</v>
+        <v>77</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="H13" s="7">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I13" s="7">
-        <v>35204</v>
+        <v>15860</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="M13" s="7">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="N13" s="7">
-        <v>53588</v>
+        <v>23212</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,49 +4229,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>605</v>
+        <v>337</v>
       </c>
       <c r="D14" s="7">
-        <v>645802</v>
+        <v>366630</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>216</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="H14" s="7">
-        <v>586</v>
+        <v>354</v>
       </c>
       <c r="I14" s="7">
-        <v>633113</v>
+        <v>372114</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="M14" s="7">
-        <v>1191</v>
+        <v>691</v>
       </c>
       <c r="N14" s="7">
-        <v>1278915</v>
+        <v>738744</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4259,10 +4280,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>622</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>664186</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4274,10 +4295,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>620</v>
+        <v>370</v>
       </c>
       <c r="I15" s="7">
-        <v>668317</v>
+        <v>387974</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4289,10 +4310,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1242</v>
+        <v>714</v>
       </c>
       <c r="N15" s="7">
-        <v>1332503</v>
+        <v>761956</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4318,13 +4339,13 @@
         <v>8981</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -4333,13 +4354,13 @@
         <v>21086</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="M16" s="7">
         <v>30</v>
@@ -4348,13 +4369,13 @@
         <v>30067</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4369,13 +4390,13 @@
         <v>203637</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="H17" s="7">
         <v>191</v>
@@ -4384,13 +4405,13 @@
         <v>198505</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="M17" s="7">
         <v>378</v>
@@ -4399,13 +4420,13 @@
         <v>402142</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,13 +4494,13 @@
         <v>10130</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>159</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -4491,10 +4512,10 @@
         <v>72</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -4503,13 +4524,13 @@
         <v>24356</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4524,10 +4545,10 @@
         <v>263851</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>167</v>
@@ -4542,10 +4563,10 @@
         <v>80</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="M20" s="7">
         <v>506</v>
@@ -4554,13 +4575,13 @@
         <v>527678</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4628,10 +4649,10 @@
         <v>10288</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>148</v>
@@ -4643,13 +4664,13 @@
         <v>28292</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="M22" s="7">
         <v>35</v>
@@ -4658,13 +4679,13 @@
         <v>38579</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4679,13 +4700,13 @@
         <v>652500</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>157</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="H23" s="7">
         <v>611</v>
@@ -4694,13 +4715,13 @@
         <v>665561</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="M23" s="7">
         <v>1219</v>
@@ -4709,13 +4730,13 @@
         <v>1318062</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4783,13 +4804,13 @@
         <v>29653</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="H25" s="7">
         <v>33</v>
@@ -4798,10 +4819,10 @@
         <v>34167</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>95</v>
@@ -4813,13 +4834,13 @@
         <v>63821</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4834,13 +4855,13 @@
         <v>747319</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="H26" s="7">
         <v>722</v>
@@ -4849,13 +4870,13 @@
         <v>787353</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>104</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="M26" s="7">
         <v>1410</v>
@@ -4864,13 +4885,13 @@
         <v>1534671</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4938,13 +4959,13 @@
         <v>116610</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>287</v>
+        <v>224</v>
       </c>
       <c r="H28" s="7">
         <v>183</v>
@@ -4956,10 +4977,10 @@
         <v>144</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="M28" s="7">
         <v>288</v>
@@ -4968,13 +4989,13 @@
         <v>311815</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4989,13 +5010,13 @@
         <v>3302578</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>293</v>
+        <v>232</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="H29" s="7">
         <v>3103</v>
@@ -5007,10 +5028,10 @@
         <v>151</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="M29" s="7">
         <v>6200</v>
@@ -5019,13 +5040,13 @@
         <v>6652459</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5105,7 +5126,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FD9201-C4B8-427C-9F20-3FEAF9769135}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B91DB1EB-40B6-4F54-9B55-EBF206F0C6C0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5122,7 +5143,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5229,10 +5250,10 @@
         <v>11292</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>91</v>
@@ -5244,13 +5265,13 @@
         <v>13016</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="M4" s="7">
         <v>23</v>
@@ -5259,13 +5280,13 @@
         <v>24309</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5280,13 +5301,13 @@
         <v>282469</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="H5" s="7">
         <v>265</v>
@@ -5295,13 +5316,13 @@
         <v>275687</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="M5" s="7">
         <v>520</v>
@@ -5310,13 +5331,13 @@
         <v>558155</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5384,13 +5405,13 @@
         <v>14265</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -5399,13 +5420,13 @@
         <v>36267</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
@@ -5414,13 +5435,13 @@
         <v>50532</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5435,13 +5456,13 @@
         <v>488310</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="H8" s="7">
         <v>449</v>
@@ -5450,13 +5471,13 @@
         <v>486817</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="M8" s="7">
         <v>910</v>
@@ -5465,13 +5486,13 @@
         <v>975127</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5539,13 +5560,13 @@
         <v>9038</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -5554,13 +5575,13 @@
         <v>10246</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>331</v>
+        <v>227</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -5569,13 +5590,13 @@
         <v>19283</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5590,13 +5611,13 @@
         <v>309527</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="H11" s="7">
         <v>321</v>
@@ -5605,13 +5626,13 @@
         <v>326063</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>338</v>
+        <v>235</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="M11" s="7">
         <v>647</v>
@@ -5620,13 +5641,13 @@
         <v>635591</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5694,13 +5715,13 @@
         <v>15657</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -5709,13 +5730,13 @@
         <v>25386</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -5724,13 +5745,13 @@
         <v>41044</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>147</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5745,13 +5766,13 @@
         <v>354307</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="H14" s="7">
         <v>336</v>
@@ -5760,13 +5781,13 @@
         <v>361897</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="M14" s="7">
         <v>676</v>
@@ -5775,10 +5796,10 @@
         <v>716203</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>155</v>
@@ -5849,13 +5870,13 @@
         <v>4457</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -5867,10 +5888,10 @@
         <v>162</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -5879,10 +5900,10 @@
         <v>14596</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>40</v>
@@ -5900,13 +5921,13 @@
         <v>206764</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="H17" s="7">
         <v>212</v>
@@ -5918,10 +5939,10 @@
         <v>169</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="M17" s="7">
         <v>419</v>
@@ -5930,13 +5951,13 @@
         <v>415212</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>48</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6004,13 +6025,13 @@
         <v>9700</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>371</v>
+        <v>175</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -6019,13 +6040,13 @@
         <v>13669</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>70</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -6034,13 +6055,13 @@
         <v>23369</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6055,13 +6076,13 @@
         <v>253423</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>378</v>
+        <v>184</v>
       </c>
       <c r="H20" s="7">
         <v>251</v>
@@ -6070,10 +6091,10 @@
         <v>259446</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>79</v>
@@ -6085,13 +6106,13 @@
         <v>512869</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6159,7 +6180,7 @@
         <v>14761</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>71</v>
@@ -6174,13 +6195,13 @@
         <v>39699</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>287</v>
+        <v>224</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="M22" s="7">
         <v>47</v>
@@ -6189,13 +6210,13 @@
         <v>54460</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6210,7 +6231,7 @@
         <v>641797</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>168</v>
@@ -6225,13 +6246,13 @@
         <v>651595</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>293</v>
+        <v>232</v>
       </c>
       <c r="M23" s="7">
         <v>1179</v>
@@ -6240,13 +6261,13 @@
         <v>1293392</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6314,10 +6335,10 @@
         <v>25065</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>115</v>
@@ -6329,13 +6350,13 @@
         <v>42041</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="M25" s="7">
         <v>64</v>
@@ -6344,10 +6365,10 @@
         <v>67106</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>146</v>
@@ -6365,13 +6386,13 @@
         <v>753518</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>122</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="H26" s="7">
         <v>716</v>
@@ -6380,13 +6401,13 @@
         <v>784126</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="M26" s="7">
         <v>1441</v>
@@ -6395,13 +6416,13 @@
         <v>1537644</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>154</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6472,10 +6493,10 @@
         <v>76</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="H28" s="7">
         <v>177</v>
@@ -6484,13 +6505,13 @@
         <v>190462</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="M28" s="7">
         <v>277</v>
@@ -6499,13 +6520,13 @@
         <v>294698</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>211</v>
+        <v>416</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6523,10 +6544,10 @@
         <v>85</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="H29" s="7">
         <v>3161</v>
@@ -6535,13 +6556,13 @@
         <v>3354080</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="M29" s="7">
         <v>6292</v>
@@ -6550,13 +6571,13 @@
         <v>6644194</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>221</v>
+        <v>422</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6636,7 +6657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9460B36-D6DD-4E39-B2CF-1E7BA19D8EC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F114E30-D1F7-485B-A7FA-3319D837D7A3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6653,7 +6674,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6757,46 +6778,46 @@
         <v>14</v>
       </c>
       <c r="D4" s="7">
-        <v>15587</v>
+        <v>19803</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
       </c>
       <c r="I4" s="7">
-        <v>5224</v>
+        <v>5454</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>419</v>
+        <v>74</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>421</v>
+        <v>89</v>
       </c>
       <c r="M4" s="7">
         <v>27</v>
       </c>
       <c r="N4" s="7">
-        <v>20811</v>
+        <v>25256</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>161</v>
+        <v>427</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>422</v>
+        <v>312</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6808,46 +6829,46 @@
         <v>317</v>
       </c>
       <c r="D5" s="7">
-        <v>244711</v>
+        <v>291640</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="H5" s="7">
         <v>525</v>
       </c>
       <c r="I5" s="7">
-        <v>266179</v>
+        <v>284181</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>426</v>
+        <v>84</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>427</v>
+        <v>98</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="M5" s="7">
         <v>842</v>
       </c>
       <c r="N5" s="7">
-        <v>510889</v>
+        <v>575821</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>168</v>
+        <v>432</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>430</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6859,7 +6880,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -6874,7 +6895,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -6889,7 +6910,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -6912,46 +6933,46 @@
         <v>16</v>
       </c>
       <c r="D7" s="7">
-        <v>24403</v>
+        <v>24436</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>431</v>
+        <v>298</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>258</v>
+        <v>164</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="H7" s="7">
         <v>40</v>
       </c>
       <c r="I7" s="7">
-        <v>29323</v>
+        <v>27328</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>433</v>
+        <v>180</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
       </c>
       <c r="N7" s="7">
-        <v>53726</v>
+        <v>51764</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>436</v>
+        <v>93</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>406</v>
+        <v>437</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6963,46 +6984,46 @@
         <v>365</v>
       </c>
       <c r="D8" s="7">
-        <v>493824</v>
+        <v>492957</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>438</v>
+        <v>305</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>439</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>267</v>
+        <v>171</v>
       </c>
       <c r="H8" s="7">
         <v>675</v>
       </c>
       <c r="I8" s="7">
-        <v>523893</v>
+        <v>486397</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>442</v>
       </c>
       <c r="M8" s="7">
         <v>1040</v>
       </c>
       <c r="N8" s="7">
-        <v>1017717</v>
+        <v>979354</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7014,7 +7035,7 @@
         <v>381</v>
       </c>
       <c r="D9" s="7">
-        <v>518227</v>
+        <v>517393</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7029,7 +7050,7 @@
         <v>715</v>
       </c>
       <c r="I9" s="7">
-        <v>553216</v>
+        <v>513725</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7044,7 +7065,7 @@
         <v>1096</v>
       </c>
       <c r="N9" s="7">
-        <v>1071443</v>
+        <v>1031118</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7067,10 +7088,10 @@
         <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>9328</v>
+        <v>9442</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>243</v>
+        <v>444</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>445</v>
@@ -7082,31 +7103,31 @@
         <v>12</v>
       </c>
       <c r="I10" s="7">
-        <v>8557</v>
+        <v>8047</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>447</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>448</v>
+        <v>286</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
       </c>
       <c r="N10" s="7">
-        <v>17885</v>
+        <v>17489</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>361</v>
+        <v>449</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>316</v>
+        <v>450</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>449</v>
+        <v>427</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7118,46 +7139,46 @@
         <v>351</v>
       </c>
       <c r="D11" s="7">
-        <v>312392</v>
+        <v>306118</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>251</v>
+        <v>451</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H11" s="7">
         <v>524</v>
       </c>
       <c r="I11" s="7">
-        <v>364727</v>
+        <v>341081</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>453</v>
+        <v>293</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="M11" s="7">
         <v>875</v>
       </c>
       <c r="N11" s="7">
-        <v>677118</v>
+        <v>647199</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>367</v>
+        <v>456</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>454</v>
+        <v>432</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>323</v>
+        <v>457</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7169,7 +7190,7 @@
         <v>359</v>
       </c>
       <c r="D12" s="7">
-        <v>321720</v>
+        <v>315560</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7184,7 +7205,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7199,7 +7220,7 @@
         <v>895</v>
       </c>
       <c r="N12" s="7">
-        <v>695003</v>
+        <v>664688</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7222,46 +7243,46 @@
         <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>5808</v>
+        <v>5685</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
       </c>
       <c r="I13" s="7">
-        <v>26390</v>
+        <v>80245</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
       </c>
       <c r="N13" s="7">
-        <v>32198</v>
+        <v>85930</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>110</v>
+        <v>464</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>461</v>
+        <v>239</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7273,46 +7294,46 @@
         <v>287</v>
       </c>
       <c r="D14" s="7">
-        <v>316432</v>
+        <v>306872</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="H14" s="7">
         <v>584</v>
       </c>
       <c r="I14" s="7">
-        <v>401810</v>
+        <v>395142</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="M14" s="7">
         <v>871</v>
       </c>
       <c r="N14" s="7">
-        <v>718242</v>
+        <v>702014</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>117</v>
+        <v>472</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>470</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7324,7 +7345,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7339,7 +7360,7 @@
         <v>598</v>
       </c>
       <c r="I15" s="7">
-        <v>428200</v>
+        <v>475387</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7354,7 +7375,7 @@
         <v>890</v>
       </c>
       <c r="N15" s="7">
-        <v>750440</v>
+        <v>787944</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7377,46 +7398,46 @@
         <v>8</v>
       </c>
       <c r="D16" s="7">
-        <v>7139</v>
+        <v>6322</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
       </c>
       <c r="I16" s="7">
-        <v>9271</v>
+        <v>8217</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>303</v>
+        <v>478</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>375</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
       </c>
       <c r="N16" s="7">
-        <v>16410</v>
+        <v>14538</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>475</v>
+        <v>96</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7428,46 +7449,46 @@
         <v>271</v>
       </c>
       <c r="D17" s="7">
-        <v>189609</v>
+        <v>172420</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="H17" s="7">
         <v>474</v>
       </c>
       <c r="I17" s="7">
-        <v>222632</v>
+        <v>200439</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>380</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>312</v>
+        <v>485</v>
       </c>
       <c r="M17" s="7">
         <v>745</v>
       </c>
       <c r="N17" s="7">
-        <v>412241</v>
+        <v>372860</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>482</v>
+        <v>106</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7479,7 +7500,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7494,7 +7515,7 @@
         <v>492</v>
       </c>
       <c r="I18" s="7">
-        <v>231903</v>
+        <v>208656</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7509,7 +7530,7 @@
         <v>771</v>
       </c>
       <c r="N18" s="7">
-        <v>428651</v>
+        <v>387398</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7532,46 +7553,46 @@
         <v>7</v>
       </c>
       <c r="D19" s="7">
-        <v>7041</v>
+        <v>6904</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>143</v>
+        <v>488</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>215</v>
+        <v>490</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
       </c>
       <c r="I19" s="7">
-        <v>10255</v>
+        <v>9567</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>145</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="M19" s="7">
         <v>20</v>
       </c>
       <c r="N19" s="7">
-        <v>17296</v>
+        <v>16471</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>226</v>
+        <v>74</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7583,46 +7604,46 @@
         <v>364</v>
       </c>
       <c r="D20" s="7">
-        <v>270182</v>
+        <v>262732</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>152</v>
+        <v>493</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>223</v>
+        <v>494</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="H20" s="7">
         <v>447</v>
       </c>
       <c r="I20" s="7">
-        <v>265367</v>
+        <v>247489</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>153</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="M20" s="7">
         <v>811</v>
       </c>
       <c r="N20" s="7">
-        <v>535549</v>
+        <v>510221</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>49</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>103</v>
+        <v>307</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>234</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7634,7 +7655,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7649,7 +7670,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7664,7 +7685,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7687,46 +7708,46 @@
         <v>19</v>
       </c>
       <c r="D22" s="7">
-        <v>16971</v>
+        <v>16804</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="H22" s="7">
         <v>69</v>
       </c>
       <c r="I22" s="7">
-        <v>50846</v>
+        <v>47364</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>495</v>
+        <v>315</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="M22" s="7">
         <v>88</v>
       </c>
       <c r="N22" s="7">
-        <v>67817</v>
+        <v>64168</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>497</v>
+        <v>178</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7738,46 +7759,46 @@
         <v>580</v>
       </c>
       <c r="D23" s="7">
-        <v>610783</v>
+        <v>607475</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="H23" s="7">
         <v>891</v>
       </c>
       <c r="I23" s="7">
-        <v>753357</v>
+        <v>801901</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>505</v>
+        <v>324</v>
       </c>
       <c r="M23" s="7">
         <v>1471</v>
       </c>
       <c r="N23" s="7">
-        <v>1364140</v>
+        <v>1409376</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>506</v>
+        <v>187</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7789,7 +7810,7 @@
         <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -7804,7 +7825,7 @@
         <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -7819,7 +7840,7 @@
         <v>1559</v>
       </c>
       <c r="N24" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -7842,28 +7863,28 @@
         <v>27</v>
       </c>
       <c r="D25" s="7">
-        <v>27419</v>
+        <v>23284</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>511</v>
+        <v>435</v>
       </c>
       <c r="H25" s="7">
         <v>66</v>
       </c>
       <c r="I25" s="7">
-        <v>52345</v>
+        <v>43461</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>512</v>
+        <v>242</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>513</v>
+        <v>245</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>514</v>
@@ -7872,16 +7893,16 @@
         <v>93</v>
       </c>
       <c r="N25" s="7">
-        <v>79764</v>
+        <v>66745</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>115</v>
+        <v>515</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>370</v>
+        <v>516</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>515</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7893,13 +7914,13 @@
         <v>735</v>
       </c>
       <c r="D26" s="7">
-        <v>832009</v>
+        <v>905436</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>517</v>
+        <v>441</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>518</v>
@@ -7908,31 +7929,31 @@
         <v>994</v>
       </c>
       <c r="I26" s="7">
-        <v>812686</v>
+        <v>671390</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>520</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>521</v>
+        <v>255</v>
       </c>
       <c r="M26" s="7">
         <v>1729</v>
       </c>
       <c r="N26" s="7">
-        <v>1644695</v>
+        <v>1576827</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>122</v>
+        <v>520</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>522</v>
+        <v>346</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>376</v>
+        <v>521</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7944,7 +7965,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -7959,7 +7980,7 @@
         <v>1060</v>
       </c>
       <c r="I27" s="7">
-        <v>865031</v>
+        <v>714851</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -7974,7 +7995,7 @@
         <v>1822</v>
       </c>
       <c r="N27" s="7">
-        <v>1724459</v>
+        <v>1643572</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -7997,43 +8018,43 @@
         <v>104</v>
       </c>
       <c r="D28" s="7">
-        <v>113695</v>
+        <v>112679</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>525</v>
       </c>
       <c r="H28" s="7">
         <v>245</v>
       </c>
       <c r="I28" s="7">
-        <v>192211</v>
+        <v>229682</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>526</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>528</v>
       </c>
       <c r="M28" s="7">
         <v>349</v>
       </c>
       <c r="N28" s="7">
-        <v>305906</v>
+        <v>342361</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>38</v>
+        <v>527</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>211</v>
+        <v>528</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>529</v>
@@ -8048,7 +8069,7 @@
         <v>3270</v>
       </c>
       <c r="D29" s="7">
-        <v>3269941</v>
+        <v>3345651</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>530</v>
@@ -8057,37 +8078,37 @@
         <v>531</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>532</v>
+        <v>234</v>
       </c>
       <c r="H29" s="7">
         <v>5114</v>
       </c>
       <c r="I29" s="7">
-        <v>3610651</v>
+        <v>3428020</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>534</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>535</v>
       </c>
       <c r="M29" s="7">
         <v>8384</v>
       </c>
       <c r="N29" s="7">
-        <v>6880592</v>
+        <v>6773671</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>47</v>
+        <v>535</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>536</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>221</v>
+        <v>537</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8099,7 +8120,7 @@
         <v>3374</v>
       </c>
       <c r="D30" s="7">
-        <v>3383636</v>
+        <v>3458330</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8114,7 +8135,7 @@
         <v>5359</v>
       </c>
       <c r="I30" s="7">
-        <v>3802862</v>
+        <v>3657702</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8129,7 +8150,7 @@
         <v>8733</v>
       </c>
       <c r="N30" s="7">
-        <v>7186498</v>
+        <v>7116032</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
